--- a/HLJT_local/Language_localiser.xlsx
+++ b/HLJT_local/Language_localiser.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uclouvain-my.sharepoint.com/personal/marcos_morenoverdu_uclouvain_be/Documents/BAS-Lab/Github_repos/HLJT_local/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uclouvain-my.sharepoint.com/personal/marcos_morenoverdu_uclouvain_be/Documents/BAS-Lab/Github_repos/HLJT/HLJT_local/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{439F560A-EC9A-4A85-BCCA-B610A865D2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{835FCB2A-F7FA-4815-A424-D50E8FAEF756}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{439F560A-EC9A-4A85-BCCA-B610A865D2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{539B355B-4833-4DAD-AE40-755CB3A8FF24}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>language</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>ISO_code</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>DE</t>
   </si>
 </sst>
 </file>
@@ -513,11 +519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.7265625" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -555,6 +561,14 @@
       </c>
       <c r="B4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -570,6 +584,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F5CAB0486A994CA2C3B13E059EF2AE" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8645ec4a60d0c8c7009d2d6675847a91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="636d7205651659ec4fcda0bcbde9384b">
     <xsd:element name="properties">
@@ -683,22 +712,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF1C174-6AC6-4774-A736-3226A12360E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -712,27 +749,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>